--- a/output/1Y_P45_1VAL-D.xlsx
+++ b/output/1Y_P45_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.9905</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>555.8489</v>
       </c>
-      <c r="G2" s="1">
-        <v>555.8489</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.139300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.9905</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.139300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>18.2369</v>
       </c>
+      <c r="E3" s="1">
+        <v>555.8489</v>
+      </c>
       <c r="F3" s="1">
         <v>548.3388</v>
       </c>
-      <c r="G3" s="1">
-        <v>1104.1877</v>
-      </c>
       <c r="H3" s="1">
-        <v>20032.505</v>
+        <v>10084.3779</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1129</v>
+        <v>10084.3779</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.9905</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20032.505</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0042</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>19.1395</v>
       </c>
+      <c r="E4" s="1">
+        <v>1104.1877</v>
+      </c>
       <c r="F4" s="1">
         <v>522.4797</v>
       </c>
-      <c r="G4" s="1">
-        <v>1626.6674</v>
-      </c>
       <c r="H4" s="1">
-        <v>30972.0729</v>
+        <v>21023.9552</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.4426</v>
+        <v>21023.9552</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.1129</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30972.0729</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0313</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>20.979</v>
       </c>
+      <c r="E5" s="1">
+        <v>1626.6674</v>
+      </c>
       <c r="F5" s="1">
         <v>476.6671</v>
       </c>
-      <c r="G5" s="1">
-        <v>2103.3346</v>
-      </c>
       <c r="H5" s="1">
-        <v>43897.2233</v>
+        <v>33949.037</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>19.0174</v>
+        <v>33949.037</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.4426</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43897.2233</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.07140000000000001</v>
+        <v>0.09429999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>22.3911</v>
       </c>
+      <c r="E6" s="1">
+        <v>2103.3346</v>
+      </c>
       <c r="F6" s="1">
         <v>446.606</v>
       </c>
-      <c r="G6" s="1">
-        <v>2549.9406</v>
-      </c>
       <c r="H6" s="1">
-        <v>56800.1814</v>
+        <v>46851.9877</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>19.6083</v>
+        <v>46851.9877</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>19.0174</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56800.1814</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0539</v>
+        <v>0.06610000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>23.2533</v>
       </c>
+      <c r="E7" s="1">
+        <v>2549.9406</v>
+      </c>
       <c r="F7" s="1">
         <v>430.0465</v>
       </c>
-      <c r="G7" s="1">
-        <v>2979.9871</v>
-      </c>
       <c r="H7" s="1">
-        <v>68935.1468</v>
+        <v>58987.0104</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>20.1343</v>
+        <v>58987.0104</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>19.6083</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68935.1468</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.032</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>22.965</v>
       </c>
+      <c r="E8" s="1">
+        <v>2979.9871</v>
+      </c>
       <c r="F8" s="1">
         <v>435.4452</v>
       </c>
-      <c r="G8" s="1">
-        <v>3415.4323</v>
-      </c>
       <c r="H8" s="1">
-        <v>78028.625</v>
+        <v>68080.4865</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>20.4952</v>
+        <v>68080.4865</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>20.1343</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78028.625</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0115</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>19.9668</v>
       </c>
+      <c r="E9" s="1">
+        <v>3415.4323</v>
+      </c>
       <c r="F9" s="1">
         <v>500.8314</v>
       </c>
-      <c r="G9" s="1">
-        <v>3916.2637</v>
-      </c>
       <c r="H9" s="1">
-        <v>77789.92049999999</v>
+        <v>67841.75659999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>20.4276</v>
+        <v>67841.75659999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>20.4952</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>77789.92049999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.1163</v>
+        <v>-0.1311</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>18.2441</v>
       </c>
+      <c r="E10" s="1">
+        <v>3916.2637</v>
+      </c>
       <c r="F10" s="1">
         <v>548.1224</v>
       </c>
-      <c r="G10" s="1">
-        <v>4464.3861</v>
-      </c>
       <c r="H10" s="1">
-        <v>81026.3754</v>
+        <v>71078.22779999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>20.1595</v>
+        <v>71078.22779999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>20.4276</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>81026.3754</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.077</v>
+        <v>-0.08690000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>14.3227</v>
       </c>
+      <c r="E11" s="1">
+        <v>4464.3861</v>
+      </c>
       <c r="F11" s="1">
         <v>698.1924</v>
       </c>
-      <c r="G11" s="1">
-        <v>5162.5785</v>
-      </c>
       <c r="H11" s="1">
-        <v>73558.4831</v>
+        <v>63610.3588</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>19.3702</v>
+        <v>63610.3588</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>20.1595</v>
+      </c>
+      <c r="M11" s="1">
         <v>2</v>
       </c>
-      <c r="L11" s="1">
-        <v>8035.895</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-1964.105</v>
+        <v>7049.2746</v>
       </c>
       <c r="O11" s="1">
-        <v>8035.895</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>81594.3781</v>
+        <v>-2950.7254</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.1036</v>
+        <v>-0.2154</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.7433</v>
       </c>
+      <c r="E12" s="1">
+        <v>5162.5785</v>
+      </c>
       <c r="F12" s="1">
-        <v>890.4072</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6052.9857</v>
+        <v>859.0726</v>
       </c>
       <c r="H12" s="1">
-        <v>94800.0456</v>
+        <v>80854.7553</v>
       </c>
       <c r="I12" s="1">
-        <v>114017.9475</v>
+        <v>7049.2746</v>
       </c>
       <c r="J12" s="1">
-        <v>18.8366</v>
+        <v>87904.02989999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103524.6373</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>20.0529</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-14017.9475</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>4017.9475</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>98817.993</v>
+        <v>-13524.6373</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0789</v>
+        <v>0.1942</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.1934</v>
       </c>
+      <c r="E13" s="1">
+        <v>6021.6511</v>
+      </c>
       <c r="F13" s="1">
-        <v>865.6581</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6918.6437</v>
+        <v>835.1944</v>
       </c>
       <c r="H13" s="1">
-        <v>111455.1994</v>
+        <v>97005.18550000001</v>
       </c>
       <c r="I13" s="1">
-        <v>128035.895</v>
+        <v>3524.6373</v>
       </c>
       <c r="J13" s="1">
-        <v>18.5059</v>
+        <v>100529.8228</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>117049.2746</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>19.4381</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-14017.9475</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>111455.1994</v>
+        <v>-13524.6373</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0242</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.2218</v>
       </c>
+      <c r="E14" s="1">
+        <v>6856.8455</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6918.6437</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6021.6511</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>103832.5253</v>
       </c>
       <c r="I14" s="1">
-        <v>128035.895</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.5059</v>
+        <v>103832.5253</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>117049.2746</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.0704</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>104768.3303</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>104768.3303</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>104768.3303</v>
+        <v>91185.2597</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1374</v>
+        <v>-0.0606</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.9905</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>555.8489</v>
       </c>
       <c r="G2" s="1">
-        <v>555.8489</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.139300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.9905</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.139300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>18.2369</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>555.8489</v>
       </c>
       <c r="F3" s="1">
         <v>546.5471</v>
       </c>
       <c r="G3" s="1">
-        <v>1102.3961</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10084.3779</v>
       </c>
       <c r="I3" s="1">
-        <v>19967.3255</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1127</v>
+        <v>10084.3779</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9967.325500000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.9317</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9967.325500000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>32.6745</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20032.6745</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0042</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>19.1395</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1102.3961</v>
       </c>
       <c r="F4" s="1">
         <v>473.2176</v>
       </c>
       <c r="G4" s="1">
-        <v>1575.6137</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20989.8414</v>
       </c>
       <c r="I4" s="1">
-        <v>29024.4746</v>
+        <v>32.6745</v>
       </c>
       <c r="J4" s="1">
-        <v>18.4211</v>
+        <v>21022.5159</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19024.4746</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.2574</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9057.149100000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>975.5254</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30975.5254</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0314</v>
+        <v>0.0467</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>20.979</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1575.6137</v>
       </c>
       <c r="F5" s="1">
         <v>340.9855</v>
       </c>
       <c r="G5" s="1">
-        <v>1916.5992</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>32883.5306</v>
       </c>
       <c r="I5" s="1">
-        <v>36178.0091</v>
+        <v>975.5254</v>
       </c>
       <c r="J5" s="1">
-        <v>18.8761</v>
+        <v>33859.0561</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26178.0091</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.6145</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-7153.5345</v>
       </c>
-      <c r="O5" s="1">
-        <v>3821.9909</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43821.9909</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.06950000000000001</v>
+        <v>0.0914</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>22.3911</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>1916.5992</v>
       </c>
       <c r="F6" s="1">
         <v>328.0596</v>
       </c>
       <c r="G6" s="1">
-        <v>2244.6588</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>42692.4385</v>
       </c>
       <c r="I6" s="1">
-        <v>43523.6255</v>
+        <v>3821.9909</v>
       </c>
       <c r="J6" s="1">
-        <v>19.3899</v>
+        <v>46514.4295</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>33523.6255</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.4912</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7345.6164</v>
       </c>
-      <c r="O6" s="1">
-        <v>6476.3745</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56476.3745</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0493</v>
+        <v>0.0605</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>23.2533</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2244.6588</v>
       </c>
       <c r="F7" s="1">
         <v>349.0721</v>
       </c>
       <c r="G7" s="1">
-        <v>2593.731</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51925.0194</v>
       </c>
       <c r="I7" s="1">
-        <v>51640.7041</v>
+        <v>6476.3745</v>
       </c>
       <c r="J7" s="1">
-        <v>19.9098</v>
+        <v>58401.394</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>41640.7041</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.551</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8117.0787</v>
       </c>
-      <c r="O7" s="1">
-        <v>8359.295899999999</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68359.2959</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0283</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>22.965</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>2593.731</v>
       </c>
       <c r="F8" s="1">
         <v>470.2762</v>
       </c>
       <c r="G8" s="1">
-        <v>3064.0071</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>59256.118</v>
       </c>
       <c r="I8" s="1">
-        <v>62440.5961</v>
+        <v>8359.295899999999</v>
       </c>
       <c r="J8" s="1">
-        <v>20.3787</v>
+        <v>67615.41379999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>52440.5961</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>20.2182</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10799.8919</v>
       </c>
-      <c r="O8" s="1">
-        <v>7559.4039</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77559.4039</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0102</v>
+        <v>-0.0115</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>19.9668</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3064.0071</v>
       </c>
       <c r="F9" s="1">
         <v>879.4301</v>
       </c>
       <c r="G9" s="1">
-        <v>3943.4372</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>78329.6753</v>
+        <v>60861.2924</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>7559.4039</v>
       </c>
       <c r="J9" s="1">
-        <v>20.2869</v>
+        <v>68420.6963</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>22.8459</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-17559.4039</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>78329.6753</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.1054</v>
+        <v>-0.1185</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>18.2441</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>3943.4372</v>
       </c>
       <c r="F10" s="1">
         <v>548.1224</v>
       </c>
       <c r="G10" s="1">
-        <v>4491.5596</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>81519.5603</v>
+        <v>71571.4127</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>20.0376</v>
+        <v>71571.4127</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>20.2869</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>81519.5603</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0771</v>
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>14.3227</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>4491.5596</v>
       </c>
       <c r="F11" s="1">
         <v>698.1924</v>
       </c>
       <c r="G11" s="1">
-        <v>5189.7519</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>73945.66160000001</v>
+        <v>63997.5373</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>19.2687</v>
+        <v>63997.5373</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>20.0376</v>
+      </c>
+      <c r="M11" s="1">
         <v>2</v>
       </c>
-      <c r="L11" s="1">
-        <v>8084.8072</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-1915.1928</v>
+        <v>7098.1869</v>
       </c>
       <c r="O11" s="1">
-        <v>8084.8072</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>82030.4688</v>
+        <v>-2901.8131</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.1037</v>
+        <v>-0.2154</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.7433</v>
       </c>
       <c r="E12" s="1">
+        <v>5189.7519</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1086.0612</v>
+      </c>
+      <c r="G12" s="1">
         <v>110000</v>
       </c>
-      <c r="F12" s="1">
-        <v>1148.7304</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6338.4823</v>
-      </c>
       <c r="H12" s="1">
-        <v>99271.40889999999</v>
+        <v>81280.33809999999</v>
       </c>
       <c r="I12" s="1">
-        <v>118084.8072</v>
+        <v>7098.1869</v>
       </c>
       <c r="J12" s="1">
-        <v>18.6298</v>
+        <v>88378.5249</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>107098.1869</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>20.6365</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-18084.8072</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>99271.40889999999</v>
+        <v>-17098.1869</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.1943</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.1934</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6275.8131</v>
       </c>
       <c r="F13" s="1">
         <v>617.5355</v>
       </c>
       <c r="G13" s="1">
-        <v>6956.0179</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>112057.2744</v>
+        <v>101099.5839</v>
       </c>
       <c r="I13" s="1">
-        <v>128084.8072</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.4135</v>
+        <v>101099.5839</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>117098.1869</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.6586</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>112057.2744</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0255</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>15.2218</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6893.3487</v>
       </c>
       <c r="F14" s="1">
-        <v>-6956.0179</v>
+        <v>-6893.3487</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>104385.2894</v>
       </c>
       <c r="I14" s="1">
-        <v>128084.8072</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.4135</v>
+        <v>104385.2894</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>117098.1869</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.9871</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>105334.2831</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>105334.2831</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>105334.2831</v>
+        <v>104385.2894</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.137</v>
+        <v>-0.0604</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.9905</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>555.8489</v>
       </c>
       <c r="G2" s="1">
-        <v>555.8489</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.139300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.9905</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.139300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>18.2369</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>555.8489</v>
       </c>
       <c r="F3" s="1">
         <v>549.3031</v>
       </c>
       <c r="G3" s="1">
-        <v>1105.152</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10084.3779</v>
       </c>
       <c r="I3" s="1">
-        <v>20017.5862</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.113</v>
+        <v>10084.3779</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10017.5862</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.0221</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10017.5862</v>
       </c>
-      <c r="O3" s="1">
-        <v>-17.5862</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20032.4138</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0042</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>19.1395</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1105.152</v>
       </c>
       <c r="F4" s="1">
         <v>478.3529</v>
       </c>
       <c r="G4" s="1">
-        <v>1583.5049</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>21042.316</v>
       </c>
       <c r="I4" s="1">
-        <v>29173.0206</v>
+        <v>-17.5862</v>
       </c>
       <c r="J4" s="1">
-        <v>18.4231</v>
+        <v>21024.7298</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19173.0206</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.3488</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9155.4344</v>
       </c>
-      <c r="O4" s="1">
-        <v>826.9794000000001</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30977.2294</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0315</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>20.979</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1583.5049</v>
       </c>
       <c r="F5" s="1">
         <v>347.5168</v>
       </c>
       <c r="G5" s="1">
-        <v>1931.0217</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>33048.2223</v>
       </c>
       <c r="I5" s="1">
-        <v>36463.5746</v>
+        <v>826.9794000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>18.883</v>
+        <v>33875.2017</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26463.5746</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.712</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-7290.554</v>
       </c>
-      <c r="O5" s="1">
-        <v>3536.4254</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43837.4266</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0698</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>22.3911</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>1931.0217</v>
       </c>
       <c r="F6" s="1">
         <v>336.1963</v>
       </c>
       <c r="G6" s="1">
-        <v>2267.2179</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>43013.7005</v>
       </c>
       <c r="I6" s="1">
-        <v>43991.3792</v>
+        <v>3536.4254</v>
       </c>
       <c r="J6" s="1">
-        <v>19.4032</v>
+        <v>46550.1258</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>33991.3792</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.6028</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7527.8046</v>
       </c>
-      <c r="O6" s="1">
-        <v>6008.6208</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56511.1271</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0497</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>23.2533</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2267.2179</v>
       </c>
       <c r="F7" s="1">
         <v>359.1516</v>
       </c>
       <c r="G7" s="1">
-        <v>2626.3695</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52446.8724</v>
       </c>
       <c r="I7" s="1">
-        <v>52342.8393</v>
+        <v>6008.6208</v>
       </c>
       <c r="J7" s="1">
-        <v>19.9297</v>
+        <v>58455.4932</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>42342.8393</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.6761</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8351.4601</v>
       </c>
-      <c r="O7" s="1">
-        <v>7657.1607</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68412.1795</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0286</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>22.965</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>2626.3695</v>
       </c>
       <c r="F8" s="1">
         <v>483.9826</v>
       </c>
       <c r="G8" s="1">
-        <v>3110.3521</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>60001.776</v>
       </c>
       <c r="I8" s="1">
-        <v>63457.4995</v>
+        <v>7657.1607</v>
       </c>
       <c r="J8" s="1">
-        <v>20.402</v>
+        <v>67658.93670000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>53457.4995</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>20.3541</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11114.6602</v>
       </c>
-      <c r="O8" s="1">
-        <v>6542.5005</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77601.2944</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0103</v>
+        <v>-0.0116</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>19.9668</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3110.3521</v>
       </c>
       <c r="F9" s="1">
         <v>828.5003</v>
       </c>
       <c r="G9" s="1">
-        <v>3938.8525</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>78238.60830000001</v>
+        <v>61781.8576</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>6542.5005</v>
       </c>
       <c r="J9" s="1">
-        <v>20.3105</v>
+        <v>68324.3581</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>22.5055</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-16542.5005</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>78238.60830000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.1069</v>
+        <v>-0.1202</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>18.2441</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>3938.8525</v>
       </c>
       <c r="F10" s="1">
         <v>548.1224</v>
       </c>
       <c r="G10" s="1">
-        <v>4486.9749</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>81436.35060000001</v>
+        <v>71488.2029</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>20.0581</v>
+        <v>71488.2029</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>20.3105</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>81436.35060000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0771</v>
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>14.3227</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>4486.9749</v>
       </c>
       <c r="F11" s="1">
         <v>698.1924</v>
       </c>
       <c r="G11" s="1">
-        <v>5185.1673</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>73880.33719999999</v>
+        <v>63932.2129</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>19.2858</v>
+        <v>63932.2129</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>20.0581</v>
+      </c>
+      <c r="M11" s="1">
         <v>2</v>
       </c>
-      <c r="L11" s="1">
-        <v>8076.5548</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-1923.4452</v>
+        <v>7089.9345</v>
       </c>
       <c r="O11" s="1">
-        <v>8076.5548</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>81956.89200000001</v>
+        <v>-2910.0655</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.1037</v>
+        <v>-0.2154</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.7433</v>
       </c>
       <c r="E12" s="1">
+        <v>5185.1673</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1085.537</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>1148.2062</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6333.3735</v>
-      </c>
       <c r="H12" s="1">
-        <v>99191.3952</v>
+        <v>81208.5341</v>
       </c>
       <c r="I12" s="1">
-        <v>118076.5548</v>
+        <v>7089.9345</v>
       </c>
       <c r="J12" s="1">
-        <v>18.6435</v>
+        <v>88298.4685</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>107089.9345</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>20.6531</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-18076.5548</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>99191.3952</v>
+        <v>-17089.9345</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.1943</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.1934</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6270.7042</v>
       </c>
       <c r="F13" s="1">
         <v>617.5355</v>
       </c>
       <c r="G13" s="1">
-        <v>6950.909</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>111974.9735</v>
+        <v>101017.283</v>
       </c>
       <c r="I13" s="1">
-        <v>128076.5548</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.4259</v>
+        <v>101017.283</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>117089.9345</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.6725</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>111974.9735</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0255</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>15.2218</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6888.2398</v>
       </c>
       <c r="F14" s="1">
-        <v>-6950.909</v>
+        <v>-6888.2398</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>104307.9262</v>
       </c>
       <c r="I14" s="1">
-        <v>128076.5548</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.4259</v>
+        <v>104307.9262</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>117089.9345</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.9985</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>105256.92</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>105256.92</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>105256.92</v>
+        <v>104307.9262</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1371</v>
+        <v>-0.0604</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.9905</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>555.8489</v>
       </c>
       <c r="G2" s="1">
-        <v>555.8489</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.139300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.9905</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.139300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>18.2369</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>555.8489</v>
       </c>
       <c r="F3" s="1">
         <v>548.3388</v>
       </c>
       <c r="G3" s="1">
-        <v>1104.1877</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20032.505</v>
+        <v>10084.3779</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1129</v>
+        <v>10084.3779</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.9905</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20032.505</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0042</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>19.1395</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1104.1877</v>
       </c>
       <c r="F4" s="1">
         <v>487.2346</v>
       </c>
       <c r="G4" s="1">
-        <v>1591.4224</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>21023.9552</v>
       </c>
       <c r="I4" s="1">
-        <v>29325.4272</v>
+        <v>-0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.4272</v>
+        <v>21023.9552</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19325.4272</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.5019</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9325.4272</v>
       </c>
-      <c r="O4" s="1">
-        <v>674.5728</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30975.5728</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0314</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>20.979</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1591.4224</v>
       </c>
       <c r="F5" s="1">
         <v>354.118</v>
       </c>
       <c r="G5" s="1">
-        <v>1945.5403</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>33213.4621</v>
       </c>
       <c r="I5" s="1">
-        <v>36754.4678</v>
+        <v>674.5728</v>
       </c>
       <c r="J5" s="1">
-        <v>18.8917</v>
+        <v>33888.0348</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>26754.4678</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.8117</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-7429.0406</v>
       </c>
-      <c r="O5" s="1">
-        <v>3245.5322</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43849.5422</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0701</v>
+        <v>0.09229999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>22.3911</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>1945.5403</v>
       </c>
       <c r="F6" s="1">
         <v>344.4629</v>
       </c>
       <c r="G6" s="1">
-        <v>2290.0032</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>43337.105</v>
       </c>
       <c r="I6" s="1">
-        <v>44467.3705</v>
+        <v>3245.5322</v>
       </c>
       <c r="J6" s="1">
-        <v>19.418</v>
+        <v>46582.6372</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34467.3705</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.7161</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7712.9028</v>
       </c>
-      <c r="O6" s="1">
-        <v>5532.6295</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56542.6796</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.05</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>23.2533</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2290.0032</v>
       </c>
       <c r="F7" s="1">
         <v>369.4421</v>
       </c>
       <c r="G7" s="1">
-        <v>2659.4453</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>52973.9568</v>
       </c>
       <c r="I7" s="1">
-        <v>53058.119</v>
+        <v>5532.6295</v>
       </c>
       <c r="J7" s="1">
-        <v>19.9508</v>
+        <v>58506.5863</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>43058.119</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.8026</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8590.7485</v>
       </c>
-      <c r="O7" s="1">
-        <v>6941.881</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68462.0316</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0288</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>22.965</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>2659.4453</v>
       </c>
       <c r="F8" s="1">
         <v>498.0294</v>
       </c>
       <c r="G8" s="1">
-        <v>3157.4747</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>60757.4217</v>
       </c>
       <c r="I8" s="1">
-        <v>64495.3648</v>
+        <v>6941.881</v>
       </c>
       <c r="J8" s="1">
-        <v>20.4262</v>
+        <v>67699.3027</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54495.3648</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>20.4913</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11437.2457</v>
       </c>
-      <c r="O8" s="1">
-        <v>5504.6352</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77639.98729999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0105</v>
+        <v>-0.0118</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>19.9668</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3157.4747</v>
       </c>
       <c r="F9" s="1">
         <v>776.5208</v>
       </c>
       <c r="G9" s="1">
-        <v>3933.9955</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>78142.1333</v>
+        <v>62717.868</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>5504.6352</v>
       </c>
       <c r="J9" s="1">
-        <v>20.3356</v>
+        <v>68222.50320000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>22.1696</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-15504.6352</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>78142.1333</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.1084</v>
+        <v>-0.122</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>18.2441</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>3933.9955</v>
       </c>
       <c r="F10" s="1">
         <v>548.1224</v>
       </c>
       <c r="G10" s="1">
-        <v>4482.1179</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>81348.1994</v>
+        <v>71400.0518</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>20.0798</v>
+        <v>71400.0518</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>20.3356</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>81348.1994</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0771</v>
+        <v>-0.0872</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>14.3227</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>4482.1179</v>
       </c>
       <c r="F11" s="1">
         <v>698.1924</v>
       </c>
       <c r="G11" s="1">
-        <v>5180.3103</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>73811.13340000001</v>
+        <v>63863.0091</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>19.3039</v>
+        <v>63863.0091</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>20.0798</v>
+      </c>
+      <c r="M11" s="1">
         <v>2</v>
       </c>
-      <c r="L11" s="1">
-        <v>8067.8123</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-1932.1877</v>
+        <v>7081.1919</v>
       </c>
       <c r="O11" s="1">
-        <v>8067.8123</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>81878.9457</v>
+        <v>-2918.8081</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.1037</v>
+        <v>-0.2154</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.7433</v>
       </c>
       <c r="E12" s="1">
+        <v>5180.3103</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1084.9817</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>1147.6509</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6327.9612</v>
-      </c>
       <c r="H12" s="1">
-        <v>99106.63</v>
+        <v>81132.466</v>
       </c>
       <c r="I12" s="1">
-        <v>118067.8123</v>
+        <v>7081.1919</v>
       </c>
       <c r="J12" s="1">
-        <v>18.6581</v>
+        <v>88213.65790000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>107081.1919</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>20.6708</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-18067.8123</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>99106.63</v>
+        <v>-17081.1919</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.1943</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.1934</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6265.292</v>
       </c>
       <c r="F13" s="1">
         <v>617.5355</v>
       </c>
       <c r="G13" s="1">
-        <v>6945.4967</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>111887.7852</v>
+        <v>100930.0947</v>
       </c>
       <c r="I13" s="1">
-        <v>128067.8123</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.439</v>
+        <v>100930.0947</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>117081.1919</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.6873</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>111887.7852</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0255</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>15.2218</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6882.8275</v>
       </c>
       <c r="F14" s="1">
-        <v>-6945.4967</v>
+        <v>-6882.8275</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>104225.9689</v>
       </c>
       <c r="I14" s="1">
-        <v>128067.8123</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.439</v>
+        <v>104225.9689</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>117081.1919</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.0106</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>105174.9626</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>105174.9626</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>105174.9626</v>
+        <v>104225.9689</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1371</v>
+        <v>-0.0604</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.9905</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>555.8489</v>
       </c>
       <c r="G2" s="1">
-        <v>555.8489</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.139300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.9905</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.139300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>18.2369</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>555.8489</v>
       </c>
       <c r="F3" s="1">
         <v>548.3388</v>
       </c>
       <c r="G3" s="1">
-        <v>1104.1877</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20032.505</v>
+        <v>10084.3779</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.1129</v>
+        <v>10084.3779</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.9905</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20032.505</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0042</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>19.1395</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1104.1877</v>
       </c>
       <c r="F4" s="1">
         <v>495.1784</v>
       </c>
       <c r="G4" s="1">
-        <v>1599.3661</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21023.9552</v>
       </c>
       <c r="I4" s="1">
-        <v>29477.466</v>
+        <v>-0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.4307</v>
+        <v>21023.9552</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19477.466</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.6396</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9477.466</v>
       </c>
-      <c r="O4" s="1">
-        <v>522.534</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30974.784</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0314</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>20.979</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1599.3661</v>
       </c>
       <c r="F5" s="1">
         <v>360.7894</v>
       </c>
       <c r="G5" s="1">
-        <v>1960.1555</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>33379.2499</v>
       </c>
       <c r="I5" s="1">
-        <v>37046.4677</v>
+        <v>522.534</v>
       </c>
       <c r="J5" s="1">
-        <v>18.8998</v>
+        <v>33901.7838</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27046.4677</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.9107</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-7569.0017</v>
       </c>
-      <c r="O5" s="1">
-        <v>2953.5323</v>
-      </c>
-      <c r="P5" s="1">
-        <v>43862.566</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.07049999999999999</v>
+        <v>0.09279999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>22.3911</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>1960.1555</v>
       </c>
       <c r="F6" s="1">
         <v>352.8608</v>
       </c>
       <c r="G6" s="1">
-        <v>2313.0163</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>43662.6602</v>
       </c>
       <c r="I6" s="1">
-        <v>44947.4086</v>
+        <v>2953.5323</v>
       </c>
       <c r="J6" s="1">
-        <v>19.4324</v>
+        <v>46616.1925</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34947.4086</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8289</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7900.9409</v>
       </c>
-      <c r="O6" s="1">
-        <v>5052.5914</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56575.2606</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0504</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>23.2533</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2313.0163</v>
       </c>
       <c r="F7" s="1">
         <v>379.9469</v>
       </c>
       <c r="G7" s="1">
-        <v>2692.9632</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>53506.312</v>
       </c>
       <c r="I7" s="1">
-        <v>53782.4275</v>
+        <v>5052.5914</v>
       </c>
       <c r="J7" s="1">
-        <v>19.9715</v>
+        <v>58558.9034</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>43782.4275</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.9287</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8835.018899999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>6217.5725</v>
-      </c>
-      <c r="P7" s="1">
-        <v>68513.0818</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0291</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>22.965</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>2692.9632</v>
       </c>
       <c r="F8" s="1">
         <v>512.4234</v>
       </c>
       <c r="G8" s="1">
-        <v>3205.3866</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>61523.1675</v>
       </c>
       <c r="I8" s="1">
-        <v>65550.2316</v>
+        <v>6217.5725</v>
       </c>
       <c r="J8" s="1">
-        <v>20.45</v>
+        <v>67740.74000000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55550.2316</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>20.6279</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11767.8041</v>
       </c>
-      <c r="O8" s="1">
-        <v>4449.7684</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77679.71030000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0106</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>19.9668</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3205.3866</v>
       </c>
       <c r="F9" s="1">
         <v>723.6897</v>
       </c>
       <c r="G9" s="1">
-        <v>3929.0764</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>78044.4224</v>
+        <v>63669.5558</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>4449.7684</v>
       </c>
       <c r="J9" s="1">
-        <v>20.361</v>
+        <v>68119.3242</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>21.8382</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-14449.7684</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>78044.4224</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.1099</v>
+        <v>-0.1238</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>18.2441</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>3929.0764</v>
       </c>
       <c r="F10" s="1">
         <v>548.1224</v>
       </c>
       <c r="G10" s="1">
-        <v>4477.1988</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>81258.9189</v>
+        <v>71310.77129999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>20.1019</v>
+        <v>71310.77129999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>20.361</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>81258.9189</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0771</v>
+        <v>-0.0872</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>14.3227</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>4477.1988</v>
       </c>
       <c r="F11" s="1">
         <v>698.1924</v>
       </c>
       <c r="G11" s="1">
-        <v>5175.3911</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>73741.0431</v>
+        <v>63792.9188</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>19.3222</v>
+        <v>63792.9188</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>20.1019</v>
+      </c>
+      <c r="M11" s="1">
         <v>2</v>
       </c>
-      <c r="L11" s="1">
-        <v>8058.9578</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-1941.0422</v>
+        <v>7072.3374</v>
       </c>
       <c r="O11" s="1">
-        <v>8058.9578</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>81800.0009</v>
+        <v>-2927.6626</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.1036</v>
+        <v>-0.2154</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.7433</v>
       </c>
       <c r="E12" s="1">
+        <v>5175.3911</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1084.4192</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>1147.0885</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6322.4796</v>
-      </c>
       <c r="H12" s="1">
-        <v>99020.7788</v>
+        <v>81055.4234</v>
       </c>
       <c r="I12" s="1">
-        <v>118058.9578</v>
+        <v>7072.3374</v>
       </c>
       <c r="J12" s="1">
-        <v>18.6729</v>
+        <v>88127.76089999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>107072.3374</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>20.6887</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-18058.9578</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>99020.7788</v>
+        <v>-17072.3374</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.1943</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.1934</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6259.8104</v>
       </c>
       <c r="F13" s="1">
         <v>617.5355</v>
       </c>
       <c r="G13" s="1">
-        <v>6940.0151</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>111799.4799</v>
+        <v>100841.7894</v>
       </c>
       <c r="I13" s="1">
-        <v>128058.9578</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.4523</v>
+        <v>100841.7894</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>117072.3374</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>18.7022</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>111799.4799</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0255</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>15.2218</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6877.3459</v>
       </c>
       <c r="F14" s="1">
-        <v>-6940.0151</v>
+        <v>-6877.3459</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>104142.9616</v>
       </c>
       <c r="I14" s="1">
-        <v>128058.9578</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.4523</v>
+        <v>104142.9616</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>117072.3374</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>17.0229</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>105091.9553</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>105091.9553</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>105091.9553</v>
+        <v>104142.9616</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1372</v>
+        <v>-0.0604</v>
       </c>
     </row>
   </sheetData>
@@ -4477,7 +4450,7 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.1808</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>18.5059</v>
+        <v>17.0704</v>
       </c>
       <c r="D3" s="1">
-        <v>18.4135</v>
+        <v>16.9871</v>
       </c>
       <c r="E3" s="1">
-        <v>18.4259</v>
+        <v>16.9985</v>
       </c>
       <c r="F3" s="1">
-        <v>18.439</v>
+        <v>17.0106</v>
       </c>
       <c r="G3" s="1">
-        <v>18.4523</v>
+        <v>17.0229</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.1113</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.15</v>
+        <v>-0.0331</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1465</v>
+        <v>-0.0307</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1471</v>
+        <v>-0.0312</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1479</v>
+        <v>-0.032</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1487</v>
+        <v>-0.0327</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.3193</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2533</v>
+        <v>0.3609</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2466</v>
+        <v>0.3546</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2474</v>
+        <v>0.3553</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2482</v>
+        <v>0.3561</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2491</v>
+        <v>0.3569</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.4122</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.6725</v>
+        <v>-0.148</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.6766</v>
+        <v>-0.1438</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.6768999999999999</v>
+        <v>-0.1451</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.6778</v>
+        <v>-0.1468</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.6786</v>
+        <v>-0.1485</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.2291</v>
+        <v>-0.4159</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.227</v>
+        <v>-0.2407</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.2274</v>
+        <v>-0.2411</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.2279</v>
+        <v>-0.2415</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.2284</v>
+        <v>-0.2419</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>8035.895</v>
+        <v>7049.2746</v>
       </c>
       <c r="D8" s="1">
-        <v>8084.8072</v>
+        <v>7098.1869</v>
       </c>
       <c r="E8" s="1">
-        <v>8076.5548</v>
+        <v>7089.9345</v>
       </c>
       <c r="F8" s="1">
-        <v>8067.8123</v>
+        <v>7081.1919</v>
       </c>
       <c r="G8" s="1">
-        <v>8058.9578</v>
+        <v>7072.3374</v>
       </c>
     </row>
   </sheetData>
